--- a/users.xlsx
+++ b/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
   <si>
     <t>Last name</t>
   </si>
@@ -427,6 +427,51 @@
   </si>
   <si>
     <t>U20452945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latife </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmet </t>
+  </si>
+  <si>
+    <t>Vize</t>
+  </si>
+  <si>
+    <t>D12790130</t>
+  </si>
+  <si>
+    <t>birsenaltan1@hotmail.com</t>
+  </si>
+  <si>
+    <t>Karademir</t>
+  </si>
+  <si>
+    <t>MuhammedSalih</t>
+  </si>
+  <si>
+    <t>Sakarya</t>
+  </si>
+  <si>
+    <t>Selver</t>
+  </si>
+  <si>
+    <t>U31185115</t>
+  </si>
+  <si>
+    <t>salihkarademir17@gmail.com</t>
+  </si>
+  <si>
+    <t>1969-04-30</t>
+  </si>
+  <si>
+    <t>1997-28-12</t>
   </si>
 </sst>
 </file>
@@ -485,11 +530,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -791,15 +837,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1301,8 +1349,61 @@
         <v>136</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/users.xlsx
+++ b/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="154">
   <si>
     <t>Last name</t>
   </si>
@@ -40,484 +40,442 @@
     <t>Passport number</t>
   </si>
   <si>
-    <t>Akk</t>
-  </si>
-  <si>
-    <t>DuyuAykanat</t>
-  </si>
-  <si>
-    <t>Donmaz</t>
-  </si>
-  <si>
-    <t>Bilir</t>
-  </si>
-  <si>
-    <t>Civelek</t>
-  </si>
-  <si>
-    <t>DILEK</t>
-  </si>
-  <si>
-    <t>EMBIYE</t>
+    <t>GOKALP</t>
+  </si>
+  <si>
+    <t>ISMAIL</t>
+  </si>
+  <si>
+    <t>GURKAN</t>
+  </si>
+  <si>
+    <t>FIGEN</t>
+  </si>
+  <si>
+    <t>BILGEN</t>
+  </si>
+  <si>
+    <t>BANU</t>
+  </si>
+  <si>
+    <t>RECAI</t>
+  </si>
+  <si>
+    <t>HARIKA</t>
+  </si>
+  <si>
+    <t>SELVIYE</t>
+  </si>
+  <si>
+    <t>BATUHAN</t>
+  </si>
+  <si>
+    <t>EBRU</t>
+  </si>
+  <si>
+    <t>ERAY</t>
+  </si>
+  <si>
+    <t>YILDIZ</t>
+  </si>
+  <si>
+    <t>OLCAY</t>
+  </si>
+  <si>
+    <t>METIN</t>
+  </si>
+  <si>
+    <t>YASEMIN</t>
+  </si>
+  <si>
+    <t>ECEM</t>
+  </si>
+  <si>
+    <t>HAYRIYE</t>
+  </si>
+  <si>
+    <t>OGUZ</t>
   </si>
   <si>
     <t>FILIZ</t>
   </si>
   <si>
-    <t>MURAT</t>
-  </si>
-  <si>
-    <t>CIGDEM</t>
-  </si>
-  <si>
-    <t>OLCAY</t>
-  </si>
-  <si>
-    <t>BULENT</t>
-  </si>
-  <si>
-    <t>ERDEM</t>
-  </si>
-  <si>
-    <t>ARMAGAN BERKER</t>
-  </si>
-  <si>
-    <t>EMIRHAN</t>
-  </si>
-  <si>
-    <t>HANIFE</t>
+    <t>ENGIN</t>
+  </si>
+  <si>
+    <t>CELIK</t>
+  </si>
+  <si>
+    <t>OZBEK</t>
+  </si>
+  <si>
+    <t>AVCI</t>
+  </si>
+  <si>
+    <t>TURETKEN</t>
+  </si>
+  <si>
+    <t>KARASURER</t>
+  </si>
+  <si>
+    <t>NARINC</t>
+  </si>
+  <si>
+    <t>AKMAN</t>
+  </si>
+  <si>
+    <t>ARACI</t>
+  </si>
+  <si>
+    <t>CANDALI</t>
+  </si>
+  <si>
+    <t>YUCEL</t>
+  </si>
+  <si>
+    <t>SOYAT</t>
+  </si>
+  <si>
+    <t>TEZCAN</t>
+  </si>
+  <si>
+    <t>BUTUN</t>
+  </si>
+  <si>
+    <t>ISBILIR</t>
+  </si>
+  <si>
+    <t>CIVICI</t>
+  </si>
+  <si>
+    <t>TEKCAN</t>
+  </si>
+  <si>
+    <t>ADSAN</t>
+  </si>
+  <si>
+    <t>1989-06-05</t>
+  </si>
+  <si>
+    <t>2000-03-22</t>
+  </si>
+  <si>
+    <t>1987-09-10</t>
+  </si>
+  <si>
+    <t>1979-01-10</t>
+  </si>
+  <si>
+    <t>1983-02-06</t>
+  </si>
+  <si>
+    <t>1990-11-19</t>
+  </si>
+  <si>
+    <t>1985-08-03</t>
+  </si>
+  <si>
+    <t>1974-11-16</t>
+  </si>
+  <si>
+    <t>1985-01-03</t>
+  </si>
+  <si>
+    <t>1962-09-05</t>
+  </si>
+  <si>
+    <t>1999-05-17</t>
+  </si>
+  <si>
+    <t>1981-09-27</t>
+  </si>
+  <si>
+    <t>1985-05-24</t>
+  </si>
+  <si>
+    <t>1968-02-04</t>
+  </si>
+  <si>
+    <t>1975-05-31</t>
+  </si>
+  <si>
+    <t>1976-11-01</t>
+  </si>
+  <si>
+    <t>1972-04-03</t>
+  </si>
+  <si>
+    <t>2001-06-05</t>
+  </si>
+  <si>
+    <t>1959-12-28</t>
+  </si>
+  <si>
+    <t>1985-10-13</t>
+  </si>
+  <si>
+    <t>1988-08-27</t>
+  </si>
+  <si>
+    <t>1976-01-01</t>
+  </si>
+  <si>
+    <t>CANAKKALE</t>
+  </si>
+  <si>
+    <t>CORLU</t>
+  </si>
+  <si>
+    <t>ISTANBUL</t>
+  </si>
+  <si>
+    <t>IZMIT</t>
+  </si>
+  <si>
+    <t>BAKIRKOY</t>
+  </si>
+  <si>
+    <t>UZUNKOPRU</t>
+  </si>
+  <si>
+    <t>GOLBASI</t>
+  </si>
+  <si>
+    <t>USKUDAR</t>
+  </si>
+  <si>
+    <t>KARTAL</t>
+  </si>
+  <si>
+    <t>ETMINIK</t>
+  </si>
+  <si>
+    <t>KADIKOY</t>
+  </si>
+  <si>
+    <t>YENIMAHALLE</t>
+  </si>
+  <si>
+    <t>SERPIL</t>
+  </si>
+  <si>
+    <t>EMEL</t>
+  </si>
+  <si>
+    <t>GULTEN</t>
+  </si>
+  <si>
+    <t>NEVIN</t>
+  </si>
+  <si>
+    <t>MELEK</t>
   </si>
   <si>
     <t>HATICE</t>
   </si>
   <si>
-    <t>SERCAN</t>
-  </si>
-  <si>
-    <t>SELCUK</t>
-  </si>
-  <si>
-    <t>FIDAN</t>
-  </si>
-  <si>
-    <t>BEKIR</t>
-  </si>
-  <si>
-    <t>Meltem</t>
-  </si>
-  <si>
-    <t>Sevgi</t>
-  </si>
-  <si>
-    <t>Murat</t>
-  </si>
-  <si>
-    <t>Fevziye</t>
-  </si>
-  <si>
-    <t>Eren</t>
-  </si>
-  <si>
-    <t>Dilek</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
-    <t>Hatice</t>
-  </si>
-  <si>
-    <t>BAYRAMOGLU</t>
-  </si>
-  <si>
-    <t>CETIN</t>
-  </si>
-  <si>
-    <t>ERKALKAN</t>
-  </si>
-  <si>
-    <t>YILMAZ</t>
-  </si>
-  <si>
-    <t>CELIK</t>
-  </si>
-  <si>
-    <t>ARSLANBAY</t>
-  </si>
-  <si>
-    <t>KOKSAL</t>
-  </si>
-  <si>
-    <t>HURRIYET</t>
-  </si>
-  <si>
-    <t>TASDEMIR</t>
-  </si>
-  <si>
-    <t>PIRISTINE</t>
-  </si>
-  <si>
-    <t>YUKSELOGLU</t>
-  </si>
-  <si>
-    <t>OLGUNDAG</t>
-  </si>
-  <si>
-    <t>PRISTINA</t>
-  </si>
-  <si>
-    <t>1999-03-10</t>
-  </si>
-  <si>
-    <t>1996-06-17</t>
-  </si>
-  <si>
-    <t>1978-11-08</t>
-  </si>
-  <si>
-    <t>1942-05-01</t>
-  </si>
-  <si>
-    <t>1988-12-22</t>
-  </si>
-  <si>
-    <t>1968-08-18</t>
-  </si>
-  <si>
-    <t>1983-05-17</t>
-  </si>
-  <si>
-    <t>1957-11-10</t>
-  </si>
-  <si>
-    <t>1978-11-20</t>
-  </si>
-  <si>
-    <t>1977-10-20</t>
-  </si>
-  <si>
-    <t>1978-12-25</t>
-  </si>
-  <si>
-    <t>1985-04-11</t>
-  </si>
-  <si>
-    <t>1981-11-06</t>
-  </si>
-  <si>
-    <t>1986-09-06</t>
-  </si>
-  <si>
-    <t>1970-07-15</t>
-  </si>
-  <si>
-    <t>1985-01-17</t>
-  </si>
-  <si>
-    <t>1995-09-07</t>
-  </si>
-  <si>
-    <t>2003-01-14</t>
-  </si>
-  <si>
-    <t>1965-09-01</t>
-  </si>
-  <si>
-    <t>1957-10-01</t>
-  </si>
-  <si>
-    <t>1988-10-26</t>
-  </si>
-  <si>
-    <t>1978-04-02</t>
-  </si>
-  <si>
-    <t>1967-02-02</t>
-  </si>
-  <si>
-    <t>1990-08-04</t>
-  </si>
-  <si>
-    <t>Bursa</t>
-  </si>
-  <si>
-    <t>Kadikoy</t>
-  </si>
-  <si>
-    <t>Istanbul</t>
-  </si>
-  <si>
-    <t>Corlu</t>
-  </si>
-  <si>
-    <t>Fatih</t>
-  </si>
-  <si>
-    <t>Akhisar</t>
-  </si>
-  <si>
-    <t>Muratli</t>
-  </si>
-  <si>
-    <t>ANKARA</t>
-  </si>
-  <si>
-    <t>TASOVA</t>
-  </si>
-  <si>
-    <t>BAKIRKOY</t>
-  </si>
-  <si>
-    <t>LULEBURGAZ</t>
-  </si>
-  <si>
-    <t>CORLU</t>
-  </si>
-  <si>
-    <t>ISTANBUL</t>
-  </si>
-  <si>
-    <t>SILIVRI</t>
-  </si>
-  <si>
-    <t>EMINONU</t>
-  </si>
-  <si>
-    <t>Ayfer</t>
-  </si>
-  <si>
-    <t>Sevda</t>
-  </si>
-  <si>
-    <t>Sebile</t>
-  </si>
-  <si>
-    <t>Meryem</t>
-  </si>
-  <si>
-    <t>Meliha</t>
-  </si>
-  <si>
-    <t>NURHAN</t>
-  </si>
-  <si>
-    <t>SAFIYE</t>
-  </si>
-  <si>
-    <t>NECMIYE</t>
-  </si>
-  <si>
-    <t>EMEL</t>
-  </si>
-  <si>
-    <t>EMINE</t>
-  </si>
-  <si>
-    <t>SEMRA</t>
-  </si>
-  <si>
-    <t>SELFIL</t>
-  </si>
-  <si>
-    <t>AYTEN</t>
+    <t>REMZIYE</t>
+  </si>
+  <si>
+    <t>BEYHAN</t>
+  </si>
+  <si>
+    <t>SABRIYE</t>
+  </si>
+  <si>
+    <t>HASIME</t>
+  </si>
+  <si>
+    <t>HURMUZ</t>
   </si>
   <si>
     <t>FATMA</t>
   </si>
   <si>
-    <t>HAFIZE</t>
-  </si>
-  <si>
-    <t>Mithat</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>Huseyin</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Mucahit</t>
-  </si>
-  <si>
-    <t>Abdus</t>
-  </si>
-  <si>
-    <t>SABRI</t>
-  </si>
-  <si>
-    <t>AZIZ</t>
-  </si>
-  <si>
-    <t>FAIK</t>
-  </si>
-  <si>
-    <t>CEMIL</t>
+    <t>NAZMIYE</t>
+  </si>
+  <si>
+    <t>FERIDE</t>
+  </si>
+  <si>
+    <t>ULVI</t>
+  </si>
+  <si>
+    <t>TANJU</t>
+  </si>
+  <si>
+    <t>MUSTAFA</t>
+  </si>
+  <si>
+    <t>SELAHIDDIN</t>
+  </si>
+  <si>
+    <t>SELAHİDDİN</t>
+  </si>
+  <si>
+    <t>NASUH</t>
   </si>
   <si>
     <t>NAZMI</t>
   </si>
   <si>
-    <t>RAMAZAN</t>
-  </si>
-  <si>
-    <t>RECEP</t>
-  </si>
-  <si>
-    <t>SEYITHAN</t>
-  </si>
-  <si>
-    <t>HALIM</t>
-  </si>
-  <si>
-    <t>Meltemak1999@gmail.com</t>
-  </si>
-  <si>
-    <t>sevgiduyuaykanat@outlook.com</t>
-  </si>
-  <si>
-    <t>sdonmaz0812@gmail.com</t>
-  </si>
-  <si>
-    <t>fevziyebilir42@gmail.com</t>
-  </si>
-  <si>
-    <t>erencvlk1988@gmail.com</t>
-  </si>
-  <si>
-    <t>dilekbilir1968@gmail.com</t>
-  </si>
-  <si>
-    <t>emrecivelek83@hotmail.com</t>
-  </si>
-  <si>
-    <t>haticvlk@gmail.com</t>
-  </si>
-  <si>
-    <t>DILEK_YIGITTURK@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>EMBIYE.BAYRAMOGLU12@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>FILIZCETIN999@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>MURATERKALKAN@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>SMMMCIGDEMYILMAZ@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>OLCAYCELIKPOLO@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>BIRCENAZARSLANBAY@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>ERDEMMKOKSAL@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>ARMAGAN3939@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>EMIRHANTASDEMIR999@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>HANIFEPIRISTINE@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>EBRUAKSOY59@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>SERCANYUKSELOGLU@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>YUKSELOGLUSELCUK@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>FIDANPIRISTINE@YAHOO.COM</t>
-  </si>
-  <si>
-    <t>B.PRISTINA@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>U28635054</t>
-  </si>
-  <si>
-    <t>U30637428</t>
-  </si>
-  <si>
-    <t>U32091248</t>
-  </si>
-  <si>
-    <t>U33309415</t>
-  </si>
-  <si>
-    <t>U24626393</t>
-  </si>
-  <si>
-    <t>U33309453</t>
-  </si>
-  <si>
-    <t>U33856826</t>
-  </si>
-  <si>
-    <t>U33319265</t>
-  </si>
-  <si>
-    <t>U13108517</t>
-  </si>
-  <si>
-    <t>U31268888</t>
-  </si>
-  <si>
-    <t>U31927776</t>
-  </si>
-  <si>
-    <t>S36736136</t>
-  </si>
-  <si>
-    <t>U29268541</t>
-  </si>
-  <si>
-    <t>U33016999</t>
-  </si>
-  <si>
-    <t>U22450839</t>
-  </si>
-  <si>
-    <t>U28831754</t>
-  </si>
-  <si>
-    <t>U28845872</t>
-  </si>
-  <si>
-    <t>U25156966</t>
-  </si>
-  <si>
-    <t>U13882439</t>
-  </si>
-  <si>
-    <t>U11684195</t>
-  </si>
-  <si>
-    <t>U26154008</t>
-  </si>
-  <si>
-    <t>U30380159</t>
-  </si>
-  <si>
-    <t>U35084972</t>
-  </si>
-  <si>
-    <t>U31281294</t>
-  </si>
-  <si>
-    <t>OZELYIGITTURK</t>
+    <t>HAMIT</t>
+  </si>
+  <si>
+    <t>VEYSEL</t>
+  </si>
+  <si>
+    <t>NECDET</t>
+  </si>
+  <si>
+    <t>MUTALLIP</t>
+  </si>
+  <si>
+    <t>NUMAN</t>
+  </si>
+  <si>
+    <t>SELIM</t>
+  </si>
+  <si>
+    <t>ABDULLAH</t>
+  </si>
+  <si>
+    <t>OZCAN</t>
+  </si>
+  <si>
+    <t>DURSUN</t>
+  </si>
+  <si>
+    <t>GOKALPCELIK89@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>CANKUTOZBEK@OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t>AVCISMAIL59@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>GURKANTURETKEN@GMAILCOM</t>
+  </si>
+  <si>
+    <t>FIGENKARASURER@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>BILGEN-1990@OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t>SENER-AKMAN@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>RECAI1974TR@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>ARACIHARIKA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>BATUHANCANDALI91@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>EBRUSOYAT@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>ERAY-SOYAT@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>SINEM_GIRGIN_@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>OLCYBTN6@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>METIN-ISBILIR@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>YASEMINCVC@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>ECEMCVC@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>HYRYTKCN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>OGUZ.TEKCAN-40@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>FILIZTEKCAN-4072@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>ENGADS583@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>U25372246</t>
+  </si>
+  <si>
+    <t>S02924873</t>
+  </si>
+  <si>
+    <t>U30400373</t>
+  </si>
+  <si>
+    <t>U27724090</t>
+  </si>
+  <si>
+    <t>U30975774</t>
+  </si>
+  <si>
+    <t>U3368940</t>
+  </si>
+  <si>
+    <t>U30243464</t>
+  </si>
+  <si>
+    <t>U30975789</t>
+  </si>
+  <si>
+    <t>U32465155</t>
+  </si>
+  <si>
+    <t>U26338608</t>
+  </si>
+  <si>
+    <t>S35719950</t>
+  </si>
+  <si>
+    <t>U27734827</t>
+  </si>
+  <si>
+    <t>U13727757</t>
+  </si>
+  <si>
+    <t>U27722762</t>
+  </si>
+  <si>
+    <t>U36950732</t>
+  </si>
+  <si>
+    <t>A11T04499</t>
+  </si>
+  <si>
+    <t>U36185184</t>
+  </si>
+  <si>
+    <t>U30049893</t>
+  </si>
+  <si>
+    <t>U36820315</t>
+  </si>
+  <si>
+    <t>U36822867</t>
+  </si>
+  <si>
+    <t>U36636720</t>
+  </si>
+  <si>
+    <t>A01M5420</t>
+  </si>
+  <si>
+    <t>CANKUTKAAN</t>
   </si>
 </sst>
 </file>
@@ -882,21 +840,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -934,620 +892,565 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -20,14 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="231">
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
   <si>
     <t xml:space="preserve">First name</t>
   </si>
   <si>
-    <t xml:space="preserve">Last name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Birth date</t>
   </si>
   <si>
@@ -46,427 +46,673 @@
     <t xml:space="preserve">Passport number</t>
   </si>
   <si>
-    <t xml:space="preserve">CELIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOKALP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989-06-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANAKKALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERPIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOKALPCELIK89@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U25372246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZBEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANKUTKAAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-03-22</t>
+    <t xml:space="preserve">HANIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIRISTINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1965-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILIVRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAZMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANIFEPIRISTINE@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13882439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HATICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUKSELOGLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1957-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HATICEYUKSELOGLU57@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11684195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELVIYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARACI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZUNKOPRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMZIYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELVIYEARACI62@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U26338608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEKCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KADIKOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYRIYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILIZTEKCAN-4072@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U36636720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKBULUTKINALITOPUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTANBUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECEAKBLT@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U15963706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KADIR KAAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKBULUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAANAKBLT@HOTMAILCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U27690632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBRAHIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORHUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1935-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERHAT.ORHUN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U25290678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMURLENK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-03-10</t>
   </si>
   <si>
     <t xml:space="preserve">CORLU</t>
   </si>
   <si>
-    <t xml:space="preserve">EMEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANJU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANKUTOZBEK@OUTLOOK.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S02924873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVCI</t>
+    <t xml:space="preserve">FERAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERBIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKANTEMURLENK05@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U23862611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEKIRDAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMIYET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NASILKER5959@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U35136644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARLIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1975-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASIBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTESTERECI@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U136343074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEYNEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZYNPIRSR@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23S67998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YIGIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YIGITIRESAR@GMNAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04M83815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENAIRESAR@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A31V74286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERHATIRESARR@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A33B31538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERDAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DURMAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERDALDURMAZ@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U27032147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HULYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAGHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULYACINAR83@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U15338544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMETLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAVIYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEFAAHMETLER@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U26642609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOLGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTALYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOLGAAHMETLER@YAHOO.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U26892385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEYDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-11-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERSIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYSEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U26643101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEVEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAKIRKOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NERIMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERMANSEVEN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12A26403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERDEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOKSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1985-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMAZAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERDEMMKOKSAL@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U28831754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMAGANBERKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HURRIYET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULEBURGAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELFIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMAGAN3939@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U28845872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GURKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURETKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IZMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GURKANTURETKEN@GMAILCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U27724090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOKKURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAYRAMPASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HACCEGUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMUTGOKKURT.1610@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U32866768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAZLICAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANEM GAMZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAZLICANULU2001@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U33173255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFER ILKAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-08-21</t>
   </si>
   <si>
     <t xml:space="preserve">ISMAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">1987-09-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISTANBUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GULTEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUSTAFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVCISMAIL59@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U30400373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURETKEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GURKAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZMIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GURKANTURETKEN@GMAILCOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U27724090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARASURER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIGEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1983-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELAHIDDIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIGENKARASURER@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U30975774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILGEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990-11-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELAHİDDİN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILGEN-1990@OUTLOOK.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3368940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENER-AKMAN@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U30243464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1974-11-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HATICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NASUH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECAI1974TR@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U30975789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARACI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARIKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAKIRKOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELVIYE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAZMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARACIHARIKA@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U32465155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANDALI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATUHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLBASI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEYHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEYSEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATUHANCANDALI91@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S35719950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1981-09-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABRIYE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NECDET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBRUSOYAT@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U27734827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOYAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERAY-SOYAT@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U13727757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEZCAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YILDIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1968-02-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HASIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUTALLIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINEM_GIRGIN_@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U27722762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUTUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLCAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1975-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HURMUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLCYBTN6@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U36950732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISBILIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1976-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FATMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METIN-ISBILIR@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11T04499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIVICI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YASEMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1972-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USKUDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAZMIYE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YASEMINCVC@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U36185184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-06-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABDULLAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECEMCVC@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U30049893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEKCAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAYRIYE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1959-12-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETMINIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYRYTKCN@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U36820315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OGUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985-10-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KADIKOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZCAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OGUZ.TEKCAN-40@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U36822867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988-08-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILIZTEKCAN-4072@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U36636720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADSAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1976-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YENIMAHALLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DURSUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGADS583@GMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A01M5420</t>
+    <t xml:space="preserve">CAFERILKAYULU@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U33161047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GULER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1982-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEFIKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GULERTANER260260@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U15168728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARSLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATILMIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79ARSLAN79ARSLAN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U29474914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1981-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERYEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEYTULLAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERDARKOKSAL34@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U32942273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMIBNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERAFETTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMIZ.1606@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U32964335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANFILIZ1979@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U33005754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1977-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EROLAYER@YAHOO.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13710216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINAYER@OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U33194010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMETIRESARR@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U28558910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUYGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABUNCUOGLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUYGUIRESAR@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A35G14169</t>
   </si>
 </sst>
 </file>
@@ -761,18 +1007,18 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.14"/>
   </cols>
   <sheetData>
@@ -839,513 +1085,981 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="B26" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="D26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
